--- a/batch-data/studentInfo.xlsx
+++ b/batch-data/studentInfo.xlsx
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1058,7 +1058,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1075,7 +1075,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -1092,7 +1092,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -1110,7 +1110,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -1127,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -1161,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -1178,7 +1178,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -1195,7 +1195,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -1212,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
